--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2402" uniqueCount="526">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-28T07:59:31+00:00</t>
+    <t>2022-10-10T09:03:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -257,10 +257,6 @@
   </si>
   <si>
     <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}prr-1:orderDetail SHALL only be present if code is present {orderDetail.empty() or code.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -2236,16 +2232,16 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AK2" t="s" s="2">
+      <c r="AL2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AL2" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>77</v>
@@ -2256,7 +2252,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -2267,28 +2263,28 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I3" t="s" s="2">
+      <c r="J3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
@@ -2338,13 +2334,13 @@
         <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
@@ -2370,7 +2366,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -2381,25 +2377,25 @@
         <v>75</v>
       </c>
       <c r="F4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>95</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -2450,19 +2446,19 @@
         <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
         <v>96</v>
-      </c>
-      <c r="AF4" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI4" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>77</v>
@@ -2482,7 +2478,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -2493,28 +2489,28 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="M5" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -2564,19 +2560,19 @@
         <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>77</v>
@@ -2596,7 +2592,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -2607,7 +2603,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -2619,16 +2615,16 @@
         <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="L6" t="s" s="2">
+      <c r="M6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -2654,43 +2650,43 @@
         <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="X6" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="Y6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="Z6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE6" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="Z6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>112</v>
-      </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>77</v>
@@ -2710,18 +2706,18 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
@@ -2733,16 +2729,16 @@
         <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K7" t="s" s="2">
+      <c r="L7" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="M7" t="s" s="2">
         <v>117</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
@@ -2792,28 +2788,28 @@
         <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL7" t="s" s="2">
         <v>119</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL7" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AM7" t="s" s="2">
         <v>77</v>
@@ -2824,11 +2820,11 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
@@ -2847,16 +2843,16 @@
         <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="L8" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2906,7 +2902,7 @@
         <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>75</v>
@@ -2927,7 +2923,7 @@
         <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>77</v>
@@ -2938,7 +2934,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2961,13 +2957,13 @@
         <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>132</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -3006,17 +3002,17 @@
         <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AE9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AE9" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>75</v>
@@ -3028,7 +3024,7 @@
         <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>77</v>
@@ -3048,10 +3044,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>77</v>
@@ -3073,13 +3069,13 @@
         <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="K10" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="K10" t="s" s="2">
+      <c r="L10" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -3130,7 +3126,7 @@
         <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>75</v>
@@ -3139,10 +3135,10 @@
         <v>76</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>77</v>
@@ -3162,11 +3158,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -3179,25 +3175,25 @@
         <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>146</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>147</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>77</v>
@@ -3246,7 +3242,7 @@
         <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>75</v>
@@ -3258,7 +3254,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>77</v>
@@ -3267,7 +3263,7 @@
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM11" t="s" s="2">
         <v>77</v>
@@ -3278,7 +3274,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -3298,19 +3294,19 @@
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>152</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>153</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
@@ -3360,7 +3356,7 @@
         <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>75</v>
@@ -3372,27 +3368,27 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="AM12" t="s" s="2">
+      <c r="AN12" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>158</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3403,7 +3399,7 @@
         <v>75</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>77</v>
@@ -3415,13 +3411,13 @@
         <v>77</v>
       </c>
       <c r="J13" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K13" t="s" s="2">
+      <c r="L13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -3472,28 +3468,28 @@
         <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL13" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL13" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>77</v>
@@ -3504,11 +3500,11 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
@@ -3527,16 +3523,16 @@
         <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="M14" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3574,19 +3570,19 @@
         <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD14" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB14" t="s" s="2">
+      <c r="AE14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>75</v>
@@ -3598,7 +3594,7 @@
         <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>77</v>
@@ -3607,7 +3603,7 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>77</v>
@@ -3618,7 +3614,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3629,31 +3625,31 @@
         <v>75</v>
       </c>
       <c r="F15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>77</v>
@@ -3678,52 +3674,52 @@
         <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X15" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
+      <c r="AF15" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL15" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL15" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>77</v>
@@ -3734,7 +3730,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3745,31 +3741,31 @@
         <v>75</v>
       </c>
       <c r="F16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I16" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I16" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>77</v>
@@ -3794,52 +3790,52 @@
         <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE16" t="s" s="2">
+      <c r="AF16" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AF16" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AL16" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3850,7 +3846,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3861,31 +3857,31 @@
         <v>75</v>
       </c>
       <c r="F17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G17" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H17" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>77</v>
@@ -3898,7 +3894,7 @@
         <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>77</v>
@@ -3910,50 +3906,50 @@
         <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE17" t="s" s="2">
+      <c r="AF17" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF17" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK17" t="s" s="2">
+      <c r="AL17" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>77</v>
@@ -3964,7 +3960,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3975,28 +3971,28 @@
         <v>75</v>
       </c>
       <c r="F18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G18" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G18" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H18" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -4010,64 +4006,64 @@
         <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="T18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
+      <c r="AF18" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AF18" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
+      <c r="AL18" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4078,7 +4074,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4089,25 +4085,25 @@
         <v>75</v>
       </c>
       <c r="F19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J19" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4158,28 +4154,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF19" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4190,7 +4186,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4201,28 +4197,28 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J20" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4272,28 +4268,28 @@
         <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF20" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4304,7 +4300,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4324,19 +4320,19 @@
         <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>227</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>228</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4386,7 +4382,7 @@
         <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -4398,16 +4394,16 @@
         <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ21" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AK21" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="AK21" t="s" s="2">
+      <c r="AL21" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4418,7 +4414,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4438,19 +4434,19 @@
         <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4500,7 +4496,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
@@ -4512,16 +4508,16 @@
         <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AK22" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AL22" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>231</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4532,11 +4528,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4552,16 +4548,16 @@
         <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>240</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4612,7 +4608,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -4624,16 +4620,16 @@
         <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ23" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="AK23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4644,11 +4640,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4664,16 +4660,16 @@
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="K24" t="s" s="2">
+      <c r="L24" t="s" s="2">
         <v>248</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>249</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4724,7 +4720,7 @@
         <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -4736,16 +4732,16 @@
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ24" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK24" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AK24" t="s" s="2">
+      <c r="AL24" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4756,42 +4752,42 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I25" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J25" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>257</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>258</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4840,28 +4836,28 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4872,7 +4868,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4880,31 +4876,31 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F26" t="s" s="2">
+      <c r="I26" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J26" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4930,63 +4926,63 @@
         <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
+      <c r="AK26" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4994,31 +4990,31 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="I27" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J27" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>275</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>276</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -5044,55 +5040,55 @@
         <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
+      <c r="AK27" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK27" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>77</v>
@@ -5100,7 +5096,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5120,22 +5116,22 @@
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5160,14 +5156,14 @@
         <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="X28" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="X28" t="s" s="2">
+      <c r="Y28" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>289</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5184,7 +5180,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -5196,19 +5192,19 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="AM28" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5216,7 +5212,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5227,25 +5223,25 @@
         <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I29" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J29" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5253,76 +5249,76 @@
         <v>77</v>
       </c>
       <c r="P29" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X29" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="X29" t="s" s="2">
+      <c r="Y29" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="Y29" t="s" s="2">
+      <c r="Z29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
+      <c r="AK29" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5330,7 +5326,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5341,103 +5337,103 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I30" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>303</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" t="s" s="2">
+      <c r="Q30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI30" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
+      <c r="AK30" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AK30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL30" t="s" s="2">
-        <v>310</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5448,39 +5444,39 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I31" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J31" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -5506,67 +5502,67 @@
         <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X31" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="Y31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Y31" t="s" s="2">
+      <c r="Z31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
+      <c r="AK31" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AL31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5582,19 +5578,19 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5620,14 +5616,14 @@
         <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X32" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="Y32" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="Y32" t="s" s="2">
-        <v>329</v>
-      </c>
       <c r="Z32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5644,7 +5640,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
@@ -5653,30 +5649,30 @@
         <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AI32" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AL32" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5687,29 +5683,29 @@
         <v>75</v>
       </c>
       <c r="F33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J33" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5758,28 +5754,28 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5790,7 +5786,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5798,28 +5794,28 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="H34" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J34" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="K34" t="s" s="2">
+      <c r="L34" t="s" s="2">
         <v>340</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5870,39 +5866,39 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AK34" t="s" s="2">
+      <c r="AL34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="AL34" t="s" s="2">
+      <c r="AM34" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5913,7 +5909,7 @@
         <v>75</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>77</v>
@@ -5925,13 +5921,13 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5982,28 +5978,28 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>77</v>
@@ -6014,11 +6010,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -6037,16 +6033,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="M36" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6084,19 +6080,19 @@
         <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD36" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB36" t="s" s="2">
+      <c r="AE36" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>75</v>
@@ -6108,7 +6104,7 @@
         <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>77</v>
@@ -6117,7 +6113,7 @@
         <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>77</v>
@@ -6128,7 +6124,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6139,28 +6135,28 @@
         <v>75</v>
       </c>
       <c r="F37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I37" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J37" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -6210,19 +6206,19 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH37" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>354</v>
-      </c>
       <c r="AI37" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6227,7 @@
         <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>77</v>
@@ -6242,7 +6238,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6253,28 +6249,28 @@
         <v>75</v>
       </c>
       <c r="F38" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I38" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J38" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6300,43 +6296,43 @@
         <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE38" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>361</v>
-      </c>
       <c r="AF38" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>77</v>
@@ -6345,7 +6341,7 @@
         <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>77</v>
@@ -6356,7 +6352,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6367,28 +6363,28 @@
         <v>75</v>
       </c>
       <c r="F39" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G39" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G39" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6438,19 +6434,19 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>77</v>
@@ -6459,7 +6455,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6470,7 +6466,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6481,7 +6477,7 @@
         <v>75</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>77</v>
@@ -6493,13 +6489,13 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -6550,28 +6546,28 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL40" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6582,11 +6578,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6605,16 +6601,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L41" t="s" s="2">
-        <v>167</v>
-      </c>
       <c r="M41" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6652,19 +6648,19 @@
         <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AB41" t="s" s="2">
+      <c r="AE41" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>75</v>
@@ -6676,7 +6672,7 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>77</v>
@@ -6685,7 +6681,7 @@
         <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>77</v>
@@ -6696,7 +6692,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6707,31 +6703,31 @@
         <v>75</v>
       </c>
       <c r="F42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>77</v>
@@ -6756,52 +6752,52 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="X42" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="X42" t="s" s="2">
+      <c r="Y42" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE42" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE42" t="s" s="2">
+      <c r="AF42" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6812,7 +6808,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6823,31 +6819,31 @@
         <v>75</v>
       </c>
       <c r="F43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I43" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J43" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>77</v>
@@ -6872,52 +6868,52 @@
         <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="X43" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="X43" t="s" s="2">
+      <c r="Y43" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="Y43" t="s" s="2">
+      <c r="Z43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE43" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
+      <c r="AF43" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>190</v>
-      </c>
       <c r="AL43" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6928,7 +6924,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6939,31 +6935,31 @@
         <v>75</v>
       </c>
       <c r="F44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G44" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G44" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -6976,7 +6972,7 @@
         <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>77</v>
@@ -6988,11 +6984,11 @@
         <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X44" s="2"/>
       <c r="Y44" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>77</v>
@@ -7010,28 +7006,28 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>77</v>
@@ -7042,7 +7038,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7053,28 +7049,28 @@
         <v>75</v>
       </c>
       <c r="F45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G45" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G45" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7088,64 +7084,64 @@
         <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE45" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="T45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
+      <c r="AF45" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK45" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK45" t="s" s="2">
+      <c r="AL45" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>77</v>
@@ -7156,7 +7152,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7167,25 +7163,25 @@
         <v>75</v>
       </c>
       <c r="F46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J46" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="K46" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="K46" t="s" s="2">
+      <c r="L46" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>212</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7236,28 +7232,28 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK46" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK46" t="s" s="2">
+      <c r="AL46" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>77</v>
@@ -7268,7 +7264,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7279,28 +7275,28 @@
         <v>75</v>
       </c>
       <c r="F47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I47" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J47" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K47" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K47" t="s" s="2">
+      <c r="L47" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7350,28 +7346,28 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
+      <c r="AL47" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7382,7 +7378,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7393,28 +7389,28 @@
         <v>75</v>
       </c>
       <c r="F48" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G48" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G48" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7464,19 +7460,19 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>77</v>
@@ -7485,7 +7481,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7496,36 +7492,36 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F49" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7576,68 +7572,68 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I50" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I50" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="K50" t="s" s="2">
+      <c r="L50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>395</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7688,39 +7684,39 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK50" t="s" s="2">
         <v>396</v>
       </c>
-      <c r="AK50" t="s" s="2">
+      <c r="AL50" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7731,25 +7727,25 @@
         <v>75</v>
       </c>
       <c r="F51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I51" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I51" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7776,92 +7772,92 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>406</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I52" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I52" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7912,71 +7908,71 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AK52" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AK52" t="s" s="2">
+      <c r="AL52" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AL52" t="s" s="2">
+      <c r="AM52" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I53" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I53" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>422</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8026,71 +8022,71 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="AK53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="AK53" t="s" s="2">
+      <c r="AL53" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="AL53" t="s" s="2">
+      <c r="AM53" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>429</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I54" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I54" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J54" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>432</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8116,55 +8112,55 @@
         <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="Y54" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="Y54" t="s" s="2">
+      <c r="Z54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AK54" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="AK54" t="s" s="2">
+      <c r="AL54" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="AL54" t="s" s="2">
+      <c r="AM54" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>440</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8172,11 +8168,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8192,19 +8188,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="K55" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="K55" t="s" s="2">
+      <c r="L55" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8254,7 +8250,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>75</v>
@@ -8266,19 +8262,19 @@
         <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ55" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="AK55" t="s" s="2">
+      <c r="AL55" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="AL55" t="s" s="2">
-        <v>449</v>
-      </c>
       <c r="AM55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>77</v>
@@ -8286,7 +8282,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8306,16 +8302,16 @@
         <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>452</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8342,14 +8338,14 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="Y56" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="Y56" t="s" s="2">
-        <v>454</v>
-      </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
       </c>
@@ -8366,7 +8362,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>75</v>
@@ -8378,7 +8374,7 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
@@ -8387,10 +8383,10 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>77</v>
@@ -8398,7 +8394,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8418,16 +8414,16 @@
         <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8478,7 +8474,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>75</v>
@@ -8490,7 +8486,7 @@
         <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>77</v>
@@ -8499,10 +8495,10 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>77</v>
@@ -8510,7 +8506,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8530,19 +8526,19 @@
         <v>77</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>461</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>462</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8568,11 +8564,11 @@
         <v>77</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="X58" s="2"/>
       <c r="Y58" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>77</v>
@@ -8590,7 +8586,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>75</v>
@@ -8602,19 +8598,19 @@
         <v>77</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ58" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AK58" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="AK58" t="s" s="2">
+      <c r="AL58" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AL58" t="s" s="2">
+      <c r="AM58" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>77</v>
@@ -8622,7 +8618,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8642,19 +8638,19 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K59" t="s" s="2">
         <v>470</v>
       </c>
-      <c r="K59" t="s" s="2">
+      <c r="L59" t="s" s="2">
         <v>471</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>473</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8704,7 +8700,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -8716,19 +8712,19 @@
         <v>77</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ59" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AK59" t="s" s="2">
         <v>474</v>
       </c>
-      <c r="AK59" t="s" s="2">
+      <c r="AL59" t="s" s="2">
         <v>475</v>
       </c>
-      <c r="AL59" t="s" s="2">
-        <v>476</v>
-      </c>
       <c r="AM59" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>77</v>
@@ -8736,7 +8732,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8759,13 +8755,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>478</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>479</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>480</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8816,7 +8812,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -8828,16 +8824,16 @@
         <v>77</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AK60" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="AK60" t="s" s="2">
+      <c r="AL60" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8848,11 +8844,11 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8871,16 +8867,16 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="K61" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="K61" t="s" s="2">
+      <c r="L61" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>489</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8930,7 +8926,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>75</v>
@@ -8942,16 +8938,16 @@
         <v>77</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ61" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AK61" t="s" s="2">
         <v>490</v>
       </c>
-      <c r="AK61" t="s" s="2">
+      <c r="AL61" t="s" s="2">
         <v>491</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>492</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
@@ -8962,7 +8958,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8982,19 +8978,19 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="K62" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="K62" t="s" s="2">
+      <c r="L62" t="s" s="2">
         <v>495</v>
       </c>
-      <c r="L62" t="s" s="2">
+      <c r="M62" t="s" s="2">
         <v>496</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>497</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9044,7 +9040,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>75</v>
@@ -9056,16 +9052,16 @@
         <v>77</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AL62" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9076,11 +9072,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9096,22 +9092,22 @@
         <v>77</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>502</v>
       </c>
-      <c r="L63" t="s" s="2">
+      <c r="M63" t="s" s="2">
         <v>503</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>77</v>
@@ -9136,14 +9132,14 @@
         <v>77</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>507</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9160,7 +9156,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9172,27 +9168,27 @@
         <v>77</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>508</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>509</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9215,13 +9211,13 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="K64" t="s" s="2">
         <v>46</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -9272,7 +9268,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>75</v>
@@ -9284,27 +9280,27 @@
         <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ64" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AL64" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="AK64" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AL64" t="s" s="2">
+      <c r="AM64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>515</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9315,25 +9311,25 @@
         <v>75</v>
       </c>
       <c r="F65" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I65" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H65" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I65" t="s" s="2">
-        <v>86</v>
-      </c>
       <c r="J65" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>517</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>518</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9384,28 +9380,28 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9416,7 +9412,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9439,16 +9435,16 @@
         <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="K66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="K66" t="s" s="2">
+      <c r="L66" t="s" s="2">
         <v>522</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>523</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -9498,7 +9494,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9510,16 +9506,16 @@
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AJ66" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AL66" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-10T09:03:48+00:00</t>
+    <t>2022-11-09T12:26:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.1</t>
+    <t>0.1.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-09T12:26:10+00:00</t>
+    <t>2022-11-25T10:32:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.2</t>
+    <t>0.1.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:32:08+00:00</t>
+    <t>2022-12-08T09:21:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -626,7 +626,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://nhn.no/fhir/nilar/ValueSet/id-provider-vs</t>
+    <t>http://nhn.no/fhir/nilar/ValueSet/identifier-source-vs</t>
   </si>
   <si>
     <t>Identifier.system</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:32:03+00:00</t>
+    <t>2022-12-23T09:40:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:40:36+00:00</t>
+    <t>2022-12-23T09:52:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="529">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23T09:52:16+00:00</t>
+    <t>2023-01-09T13:10:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>A request for a service to be performed</t>
@@ -2175,13 +2179,13 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -2247,13 +2251,13 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" t="s" s="2">
         <v>78</v>
@@ -2264,10 +2268,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2278,7 +2282,7 @@
         <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2287,19 +2291,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2349,13 +2353,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2381,10 +2385,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2395,7 +2399,7 @@
         <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2404,16 +2408,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2464,19 +2468,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2496,10 +2500,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2510,28 +2514,28 @@
         <v>76</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2581,19 +2585,19 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>78</v>
@@ -2613,10 +2617,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2627,7 +2631,7 @@
         <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H6" t="s" s="2">
         <v>78</v>
@@ -2639,16 +2643,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2674,13 +2678,13 @@
         <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>78</v>
@@ -2698,19 +2702,19 @@
         <v>78</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
@@ -2730,21 +2734,21 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2756,16 +2760,16 @@
         <v>78</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2815,19 +2819,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2836,7 +2840,7 @@
         <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>78</v>
@@ -2847,14 +2851,14 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -2873,16 +2877,16 @@
         <v>78</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2932,7 +2936,7 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>76</v>
@@ -2953,7 +2957,7 @@
         <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>78</v>
@@ -2964,10 +2968,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2990,13 +2994,13 @@
         <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -3035,17 +3039,17 @@
         <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>76</v>
@@ -3057,7 +3061,7 @@
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -3077,13 +3081,13 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>78</v>
@@ -3105,13 +3109,13 @@
         <v>78</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -3162,7 +3166,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>76</v>
@@ -3171,10 +3175,10 @@
         <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -3194,14 +3198,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3214,25 +3218,25 @@
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>78</v>
@@ -3281,7 +3285,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3293,7 +3297,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3302,7 +3306,7 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3313,10 +3317,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3336,19 +3340,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3398,7 +3402,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3413,27 +3417,27 @@
         <v>78</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3444,7 +3448,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3456,13 +3460,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3513,13 +3517,13 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
@@ -3534,7 +3538,7 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3545,14 +3549,14 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
@@ -3571,16 +3575,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3618,19 +3622,19 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
@@ -3642,7 +3646,7 @@
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3651,7 +3655,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3662,10 +3666,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3676,31 +3680,31 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>78</v>
@@ -3725,13 +3729,13 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
@@ -3749,28 +3753,28 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3781,10 +3785,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3795,7 +3799,7 @@
         <v>76</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>78</v>
@@ -3804,22 +3808,22 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>78</v>
@@ -3844,13 +3848,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3868,28 +3872,28 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3900,10 +3904,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3914,31 +3918,31 @@
         <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>78</v>
@@ -3951,7 +3955,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3963,11 +3967,11 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
@@ -3985,28 +3989,28 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4017,10 +4021,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4031,28 +4035,28 @@
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4066,7 +4070,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -4102,28 +4106,28 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4134,10 +4138,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4148,7 +4152,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4157,16 +4161,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4217,28 +4221,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4249,10 +4253,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4263,7 +4267,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4272,19 +4276,19 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4334,28 +4338,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4366,10 +4370,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4389,19 +4393,19 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4451,7 +4455,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4463,16 +4467,16 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>78</v>
@@ -4483,10 +4487,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4506,19 +4510,19 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4568,7 +4572,7 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -4580,16 +4584,16 @@
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4600,14 +4604,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4623,16 +4627,16 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4683,7 +4687,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4695,16 +4699,16 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4715,14 +4719,14 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -4738,16 +4742,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4798,7 +4802,7 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
@@ -4810,16 +4814,16 @@
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4830,21 +4834,21 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4853,22 +4857,22 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4917,28 +4921,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4949,10 +4953,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4960,31 +4964,31 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5010,13 +5014,13 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5034,42 +5038,42 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5077,31 +5081,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5127,13 +5131,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5151,31 +5155,31 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5183,10 +5187,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5206,22 +5210,22 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>78</v>
@@ -5246,13 +5250,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5270,7 +5274,7 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
@@ -5282,19 +5286,19 @@
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5302,10 +5306,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5316,7 +5320,7 @@
         <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5325,16 +5329,16 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5342,7 +5346,7 @@
         <v>78</v>
       </c>
       <c r="Q29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>78</v>
@@ -5363,13 +5367,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5387,31 +5391,31 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5419,10 +5423,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5433,103 +5437,103 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="O30" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="P30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q30" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>85</v>
-      </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5540,21 +5544,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5563,19 +5567,19 @@
         <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5601,13 +5605,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5625,46 +5629,46 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5680,19 +5684,19 @@
         <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5718,13 +5722,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5742,7 +5746,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5751,33 +5755,33 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5788,7 +5792,7 @@
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5797,20 +5801,20 @@
         <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>78</v>
@@ -5859,28 +5863,28 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>332</v>
-      </c>
       <c r="AM33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5891,10 +5895,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5902,28 +5906,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5974,42 +5978,42 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6020,7 +6024,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -6032,13 +6036,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6089,13 +6093,13 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>78</v>
@@ -6110,7 +6114,7 @@
         <v>78</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>78</v>
@@ -6121,14 +6125,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6147,16 +6151,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6194,19 +6198,19 @@
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>76</v>
@@ -6218,7 +6222,7 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
@@ -6227,7 +6231,7 @@
         <v>78</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>78</v>
@@ -6238,10 +6242,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6252,7 +6256,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6261,19 +6265,19 @@
         <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -6323,19 +6327,19 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
@@ -6344,7 +6348,7 @@
         <v>78</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>78</v>
@@ -6355,10 +6359,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6369,7 +6373,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>78</v>
@@ -6378,19 +6382,19 @@
         <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6416,13 +6420,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6440,19 +6444,19 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
@@ -6461,7 +6465,7 @@
         <v>78</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>78</v>
@@ -6472,10 +6476,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6486,28 +6490,28 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6557,19 +6561,19 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
@@ -6578,7 +6582,7 @@
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6589,10 +6593,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6603,7 +6607,7 @@
         <v>76</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6615,13 +6619,13 @@
         <v>78</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6672,13 +6676,13 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
@@ -6693,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>78</v>
@@ -6704,14 +6708,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6730,16 +6734,16 @@
         <v>78</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6777,19 +6781,19 @@
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6801,7 +6805,7 @@
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
@@ -6810,7 +6814,7 @@
         <v>78</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
@@ -6821,10 +6825,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6835,31 +6839,31 @@
         <v>76</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6884,13 +6888,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6908,28 +6912,28 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6940,10 +6944,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6954,7 +6958,7 @@
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6963,22 +6967,22 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
@@ -7003,13 +7007,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7027,28 +7031,28 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>78</v>
@@ -7059,10 +7063,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7073,31 +7077,31 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -7110,7 +7114,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7122,11 +7126,11 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y44" s="2"/>
       <c r="Z44" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7144,28 +7148,28 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7176,10 +7180,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7190,28 +7194,28 @@
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7225,7 +7229,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7261,28 +7265,28 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7293,10 +7297,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7307,7 +7311,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -7316,16 +7320,16 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7376,28 +7380,28 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7408,10 +7412,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7422,7 +7426,7 @@
         <v>76</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7431,19 +7435,19 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7493,28 +7497,28 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7525,10 +7529,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7539,28 +7543,28 @@
         <v>76</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7610,19 +7614,19 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
@@ -7631,7 +7635,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7642,21 +7646,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7665,16 +7669,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7725,53 +7729,53 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7780,16 +7784,16 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7840,42 +7844,42 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7886,7 +7890,7 @@
         <v>76</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7895,16 +7899,16 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7931,13 +7935,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7955,19 +7959,19 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
@@ -7976,32 +7980,32 @@
         <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -8010,16 +8014,16 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8070,53 +8074,53 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -8125,19 +8129,19 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8187,53 +8191,53 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -8242,19 +8246,19 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8280,13 +8284,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8304,31 +8308,31 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8336,14 +8340,14 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8359,19 +8363,19 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8421,7 +8425,7 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
@@ -8433,19 +8437,19 @@
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8453,10 +8457,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8476,16 +8480,16 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8512,13 +8516,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8536,7 +8540,7 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
@@ -8548,7 +8552,7 @@
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
@@ -8557,10 +8561,10 @@
         <v>78</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8568,10 +8572,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8591,16 +8595,16 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8651,7 +8655,7 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
@@ -8663,7 +8667,7 @@
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
@@ -8672,10 +8676,10 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8683,10 +8687,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8706,19 +8710,19 @@
         <v>78</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -8744,11 +8748,11 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Y58" s="2"/>
       <c r="Z58" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8766,7 +8770,7 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
@@ -8778,19 +8782,19 @@
         <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>78</v>
@@ -8798,10 +8802,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8821,19 +8825,19 @@
         <v>78</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8883,7 +8887,7 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
@@ -8895,19 +8899,19 @@
         <v>78</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>78</v>
@@ -8915,10 +8919,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8941,13 +8945,13 @@
         <v>78</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8998,7 +9002,7 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
@@ -9010,16 +9014,16 @@
         <v>78</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
@@ -9030,14 +9034,14 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
@@ -9056,16 +9060,16 @@
         <v>78</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
@@ -9115,7 +9119,7 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
@@ -9127,16 +9131,16 @@
         <v>78</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>78</v>
@@ -9147,10 +9151,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9170,19 +9174,19 @@
         <v>78</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9232,7 +9236,7 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
@@ -9244,16 +9248,16 @@
         <v>78</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>78</v>
@@ -9264,14 +9268,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9287,22 +9291,22 @@
         <v>78</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>78</v>
@@ -9327,13 +9331,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9351,7 +9355,7 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
@@ -9363,30 +9367,30 @@
         <v>78</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9409,13 +9413,13 @@
         <v>78</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>47</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9466,7 +9470,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9478,30 +9482,30 @@
         <v>78</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9512,7 +9516,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9521,16 +9525,16 @@
         <v>78</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9581,28 +9585,28 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>78</v>
@@ -9613,10 +9617,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9639,16 +9643,16 @@
         <v>78</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9698,7 +9702,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9710,16 +9714,16 @@
         <v>78</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>78</v>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AO$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2468" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2796" uniqueCount="570">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T13:10:52+00:00</t>
+    <t>2023-02-27T07:47:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -466,6 +466,163 @@
 </t>
   </si>
   <si>
+    <t>ServiceRequest.extension:receiptdate</t>
+  </si>
+  <si>
+    <t>receiptdate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-receipt-date}
+</t>
+  </si>
+  <si>
+    <t>Receipt Date</t>
+  </si>
+  <si>
+    <t>Time the request was received.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:paymentcategory</t>
+  </si>
+  <si>
+    <t>paymentcategory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-payment-category}
+</t>
+  </si>
+  <si>
+    <t>Payment Category</t>
+  </si>
+  <si>
+    <t>Who pays for these investigations.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-comment}
+</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Each comment may have two codes. System '8234' represents a 'heading', any other code the actual comment as a coded text.</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment.id</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/StructureDefinition/nilar-comment</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment.value[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:comment.value[x]:valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://nhn.no/fhir/nilar/ValueSet/requisition-comment-vs</t>
+  </si>
+  <si>
+    <t>ServiceRequest.extension:reservation</t>
+  </si>
+  <si>
+    <t>reservation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://nhn.no/fhir/nilar/StructureDefinition/nilar-reservation}
+</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Reservations the patient might have, regarding registration etc.</t>
+  </si>
+  <si>
     <t>ServiceRequest.modifierExtension</t>
   </si>
   <si>
@@ -523,22 +680,6 @@
     <t>ServiceRequest.identifier.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.extension</t>
   </si>
   <si>
@@ -548,12 +689,6 @@
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
     <t>ServiceRequest.identifier.use</t>
   </si>
   <si>
@@ -569,9 +704,6 @@
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Identifies the purpose for this identifier, if known .</t>
   </si>
   <si>
@@ -585,10 +717,6 @@
   </si>
   <si>
     <t>ServiceRequest.identifier.type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
   </si>
   <si>
     <t>Description of identifier</t>
@@ -1975,7 +2103,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO66"/>
+  <dimension ref="A1:AO75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1984,9 +2112,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="40.94140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="64.16015625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="40.94140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -3201,43 +3329,41 @@
         <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="D11" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="O11" t="s" s="2">
-        <v>149</v>
-      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>78</v>
       </c>
@@ -3285,7 +3411,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>76</v>
@@ -3294,7 +3420,7 @@
         <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -3306,7 +3432,7 @@
         <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>78</v>
@@ -3317,12 +3443,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>150</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>78</v>
       </c>
@@ -3331,7 +3459,7 @@
         <v>76</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3340,20 +3468,18 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
-      </c>
+      <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>78</v>
@@ -3402,7 +3528,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>76</v>
@@ -3411,35 +3537,37 @@
         <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>157</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>158</v>
+        <v>78</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>159</v>
+        <v>78</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>78</v>
       </c>
@@ -3448,7 +3576,7 @@
         <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
@@ -3460,13 +3588,13 @@
         <v>78</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3517,19 +3645,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3538,7 +3666,7 @@
         <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>166</v>
+        <v>78</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>78</v>
@@ -3549,21 +3677,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3575,17 +3703,15 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>78</v>
@@ -3622,31 +3748,31 @@
         <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>137</v>
+        <v>78</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3655,7 +3781,7 @@
         <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>78</v>
@@ -3666,10 +3792,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3680,32 +3806,28 @@
         <v>76</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>78</v>
       </c>
@@ -3729,52 +3851,52 @@
         <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>129</v>
+        <v>78</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>78</v>
@@ -3785,10 +3907,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3796,7 +3918,7 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>86</v>
@@ -3808,29 +3930,27 @@
         <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>78</v>
@@ -3848,13 +3968,13 @@
         <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>78</v>
@@ -3872,10 +3992,10 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>86</v>
@@ -3884,16 +4004,16 @@
         <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>192</v>
+        <v>78</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>78</v>
@@ -3904,10 +4024,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3921,29 +4041,25 @@
         <v>86</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>78</v>
       </c>
@@ -3955,7 +4071,7 @@
         <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>78</v>
@@ -3967,29 +4083,29 @@
         <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y17" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y17" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z17" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="AC17" s="2"/>
       <c r="AD17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>78</v>
+        <v>183</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -4007,10 +4123,10 @@
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>202</v>
+        <v>129</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>78</v>
@@ -4021,12 +4137,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>186</v>
+      </c>
       <c r="D18" t="s" s="2">
         <v>78</v>
       </c>
@@ -4038,26 +4156,24 @@
         <v>86</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -4070,7 +4186,7 @@
         <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>78</v>
@@ -4082,13 +4198,11 @@
         <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y18" s="2"/>
       <c r="Z18" t="s" s="2">
-        <v>78</v>
+        <v>188</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>78</v>
@@ -4106,7 +4220,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
@@ -4124,10 +4238,10 @@
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>210</v>
+        <v>129</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>78</v>
@@ -4138,12 +4252,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="D19" t="s" s="2">
         <v>78</v>
       </c>
@@ -4152,7 +4268,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -4161,16 +4277,16 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4221,28 +4337,28 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>215</v>
+        <v>136</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4253,44 +4369,46 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>219</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
       </c>
@@ -4338,28 +4456,28 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>78</v>
@@ -4370,10 +4488,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4396,16 +4514,16 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4455,7 +4573,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
@@ -4467,30 +4585,30 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>78</v>
+        <v>209</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>78</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4501,7 +4619,7 @@
         <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
@@ -4510,20 +4628,18 @@
         <v>78</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>235</v>
+        <v>162</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>78</v>
@@ -4572,28 +4688,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>234</v>
+        <v>164</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>238</v>
+        <v>78</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>78</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4604,14 +4720,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>240</v>
+        <v>195</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4627,18 +4743,20 @@
         <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>241</v>
+        <v>131</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N23" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>78</v>
@@ -4675,19 +4793,19 @@
         <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AD23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>169</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -4699,16 +4817,16 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>244</v>
+        <v>78</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>245</v>
+        <v>78</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>78</v>
@@ -4719,42 +4837,46 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>247</v>
+        <v>215</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>248</v>
+        <v>78</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>78</v>
       </c>
@@ -4778,13 +4900,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>78</v>
+        <v>221</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4802,13 +4924,13 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4817,13 +4939,13 @@
         <v>98</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>253</v>
+        <v>129</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4834,14 +4956,14 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>256</v>
+        <v>78</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4860,19 +4982,19 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>257</v>
+        <v>225</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>258</v>
+        <v>226</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>259</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>260</v>
+        <v>228</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>78</v>
@@ -4897,13 +5019,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4921,7 +5043,7 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4936,13 +5058,13 @@
         <v>98</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>261</v>
+        <v>78</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4953,10 +5075,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4964,33 +5086,35 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>78</v>
       </c>
@@ -5002,7 +5126,7 @@
         <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="U26" t="s" s="2">
         <v>78</v>
@@ -5014,13 +5138,11 @@
         <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>268</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>78</v>
@@ -5038,10 +5160,10 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>86</v>
@@ -5053,27 +5175,27 @@
         <v>98</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>270</v>
+        <v>78</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>273</v>
+        <v>78</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5081,31 +5203,31 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5119,7 +5241,7 @@
         <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>78</v>
@@ -5131,13 +5253,13 @@
         <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>279</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>280</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>78</v>
@@ -5155,10 +5277,10 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>275</v>
+        <v>249</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
@@ -5170,16 +5292,16 @@
         <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>78</v>
@@ -5187,10 +5309,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5201,7 +5323,7 @@
         <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -5213,20 +5335,16 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>183</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>78</v>
       </c>
@@ -5250,13 +5368,13 @@
         <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>78</v>
@@ -5274,13 +5392,13 @@
         <v>78</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
@@ -5292,13 +5410,13 @@
         <v>78</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>283</v>
+        <v>78</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>78</v>
@@ -5306,10 +5424,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>294</v>
+        <v>259</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5332,22 +5450,22 @@
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>106</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q29" t="s" s="2">
-        <v>297</v>
-      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
         <v>78</v>
       </c>
@@ -5367,13 +5485,13 @@
         <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>298</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>299</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>78</v>
@@ -5391,7 +5509,7 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -5406,16 +5524,16 @@
         <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>300</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>301</v>
+        <v>265</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>78</v>
@@ -5423,10 +5541,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5437,38 +5555,34 @@
         <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>306</v>
+        <v>269</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>309</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q30" t="s" s="2">
-        <v>310</v>
-      </c>
+      <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
         <v>78</v>
       </c>
@@ -5512,13 +5626,13 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
@@ -5527,13 +5641,13 @@
         <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>312</v>
+        <v>274</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5544,21 +5658,21 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>314</v>
+        <v>78</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5570,16 +5684,16 @@
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5605,13 +5719,13 @@
         <v>78</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>78</v>
@@ -5629,13 +5743,13 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
@@ -5644,31 +5758,31 @@
         <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>320</v>
+        <v>279</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>321</v>
+        <v>273</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>322</v>
+        <v>274</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>323</v>
+        <v>78</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5687,17 +5801,15 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>183</v>
+        <v>282</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>329</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>78</v>
@@ -5722,13 +5834,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>330</v>
+        <v>78</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5746,7 +5858,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -5755,44 +5867,44 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>332</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>285</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>333</v>
+        <v>286</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>322</v>
+        <v>287</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>324</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>78</v>
+        <v>289</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5804,18 +5916,16 @@
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>338</v>
-      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>78</v>
       </c>
@@ -5863,13 +5973,13 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>78</v>
@@ -5878,13 +5988,13 @@
         <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>78</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5895,24 +6005,24 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>78</v>
@@ -5921,16 +6031,20 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>341</v>
+        <v>202</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>342</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>78</v>
       </c>
@@ -5978,10 +6092,10 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>296</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5993,27 +6107,27 @@
         <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>344</v>
+        <v>302</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>345</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>78</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>348</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6021,7 +6135,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>86</v>
@@ -6030,21 +6144,23 @@
         <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>162</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>163</v>
+        <v>306</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -6069,13 +6185,13 @@
         <v>78</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>78</v>
+        <v>309</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>78</v>
+        <v>310</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>78</v>
@@ -6093,10 +6209,10 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>86</v>
@@ -6105,62 +6221,62 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>78</v>
+        <v>311</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>78</v>
+        <v>312</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>78</v>
+        <v>314</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>78</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>168</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>169</v>
+        <v>318</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6186,55 +6302,55 @@
         <v>78</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>78</v>
+        <v>187</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>78</v>
+        <v>320</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>78</v>
+        <v>321</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>171</v>
+        <v>316</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>78</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>166</v>
+        <v>323</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>78</v>
@@ -6242,10 +6358,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6256,7 +6372,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -6268,18 +6384,20 @@
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>353</v>
+        <v>327</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="O37" s="2"/>
+        <v>328</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>329</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>78</v>
       </c>
@@ -6303,13 +6421,13 @@
         <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>78</v>
+        <v>332</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>78</v>
@@ -6327,16 +6445,16 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>355</v>
+        <v>325</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>356</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>98</v>
@@ -6345,13 +6463,13 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>78</v>
+        <v>333</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>129</v>
+        <v>334</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>78</v>
+        <v>324</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>78</v>
@@ -6359,10 +6477,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6385,22 +6503,22 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>358</v>
+        <v>336</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="R38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6420,13 +6538,13 @@
         <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>361</v>
+        <v>339</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>362</v>
+        <v>340</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>78</v>
@@ -6444,7 +6562,7 @@
         <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>363</v>
+        <v>335</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
@@ -6459,16 +6577,16 @@
         <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>78</v>
+        <v>341</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>129</v>
+        <v>343</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>78</v>
@@ -6476,10 +6594,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6493,31 +6611,35 @@
         <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I39" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
       </c>
-      <c r="Q39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>351</v>
+      </c>
       <c r="R39" t="s" s="2">
         <v>78</v>
       </c>
@@ -6561,7 +6683,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
@@ -6576,13 +6698,13 @@
         <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>78</v>
+        <v>352</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>158</v>
+        <v>353</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>78</v>
@@ -6593,14 +6715,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>78</v>
+        <v>355</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6616,18 +6738,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>163</v>
+        <v>356</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6652,13 +6776,13 @@
         <v>78</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>78</v>
+        <v>359</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>78</v>
+        <v>360</v>
       </c>
       <c r="AA40" t="s" s="2">
         <v>78</v>
@@ -6676,7 +6800,7 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>165</v>
+        <v>354</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
@@ -6688,34 +6812,34 @@
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>78</v>
+        <v>361</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>78</v>
+        <v>362</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>166</v>
+        <v>363</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>78</v>
+        <v>364</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>145</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6731,19 +6855,19 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>131</v>
+        <v>179</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>168</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>169</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>148</v>
+        <v>370</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6769,31 +6893,31 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>371</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>372</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>134</v>
+        <v>78</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>171</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>76</v>
@@ -6802,33 +6926,33 @@
         <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>78</v>
+        <v>374</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>166</v>
+        <v>363</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>78</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6845,25 +6969,23 @@
         <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>376</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>173</v>
+        <v>377</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
-        <v>176</v>
+        <v>379</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6888,13 +7010,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>179</v>
+        <v>78</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6912,7 +7034,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>180</v>
+        <v>375</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>76</v>
@@ -6930,10 +7052,10 @@
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>129</v>
+        <v>374</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>181</v>
+        <v>380</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>78</v>
@@ -6944,10 +7066,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6955,13 +7077,13 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>78</v>
@@ -6970,20 +7092,16 @@
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>183</v>
+        <v>382</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>184</v>
+        <v>383</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -7007,13 +7125,13 @@
         <v>78</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>188</v>
+        <v>78</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>190</v>
+        <v>78</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>78</v>
@@ -7031,10 +7149,10 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>86</v>
@@ -7046,27 +7164,27 @@
         <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>78</v>
+        <v>385</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>181</v>
+        <v>387</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>78</v>
+        <v>388</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>78</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7080,29 +7198,25 @@
         <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>100</v>
+        <v>161</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -7114,7 +7228,7 @@
         <v>78</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>198</v>
+        <v>78</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>78</v>
@@ -7126,11 +7240,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y44" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z44" t="s" s="2">
-        <v>374</v>
+        <v>78</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -7148,7 +7264,7 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
@@ -7160,16 +7276,16 @@
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>201</v>
+        <v>78</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>78</v>
@@ -7180,42 +7296,42 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7229,7 +7345,7 @@
         <v>78</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>207</v>
+        <v>78</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>78</v>
@@ -7253,40 +7369,40 @@
         <v>78</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>208</v>
+        <v>169</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>209</v>
+        <v>78</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>210</v>
+        <v>165</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>78</v>
@@ -7297,10 +7413,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7323,15 +7439,17 @@
         <v>87</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>213</v>
+        <v>393</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7380,7 +7498,7 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>215</v>
+        <v>396</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
@@ -7389,7 +7507,7 @@
         <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>78</v>
+        <v>397</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>98</v>
@@ -7398,10 +7516,10 @@
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>216</v>
+        <v>78</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>217</v>
+        <v>129</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>78</v>
@@ -7412,10 +7530,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>377</v>
+        <v>398</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7438,16 +7556,16 @@
         <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>219</v>
+        <v>100</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>220</v>
+        <v>399</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>400</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>222</v>
+        <v>401</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7473,13 +7591,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>78</v>
+        <v>402</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>78</v>
+        <v>403</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7497,7 +7615,7 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>223</v>
+        <v>404</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -7515,10 +7633,10 @@
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>224</v>
+        <v>78</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>225</v>
+        <v>129</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>78</v>
@@ -7529,10 +7647,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>378</v>
+        <v>405</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7555,16 +7673,16 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>380</v>
+        <v>407</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>381</v>
+        <v>408</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7614,7 +7732,7 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>382</v>
+        <v>409</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -7635,7 +7753,7 @@
         <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>129</v>
+        <v>208</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>78</v>
@@ -7646,14 +7764,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>383</v>
+        <v>410</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>384</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7669,16 +7787,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>162</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>163</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7729,7 +7847,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>383</v>
+        <v>164</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
@@ -7741,41 +7859,41 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>388</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>389</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>390</v>
+        <v>165</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>392</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>394</v>
+        <v>195</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7784,18 +7902,20 @@
         <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>395</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>396</v>
+        <v>213</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7832,54 +7952,54 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>393</v>
+        <v>169</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>398</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>399</v>
+        <v>78</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>400</v>
+        <v>165</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7896,22 +8016,26 @@
         <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>404</v>
+        <v>106</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>405</v>
+        <v>216</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>219</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7935,13 +8059,13 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>408</v>
+        <v>221</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
@@ -7959,7 +8083,7 @@
         <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>403</v>
+        <v>222</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>76</v>
@@ -7977,28 +8101,28 @@
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>409</v>
+        <v>223</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>412</v>
+        <v>78</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -8017,16 +8141,20 @@
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>413</v>
+        <v>179</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>225</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
       </c>
@@ -8050,13 +8178,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>78</v>
+        <v>229</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>78</v>
+        <v>230</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>78</v>
+        <v>231</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -8074,7 +8202,7 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>411</v>
+        <v>232</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>76</v>
@@ -8089,31 +8217,31 @@
         <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>417</v>
+        <v>233</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>418</v>
+        <v>223</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>78</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>420</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>422</v>
+        <v>78</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8123,7 +8251,7 @@
         <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>78</v>
@@ -8132,18 +8260,20 @@
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>423</v>
+        <v>100</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>424</v>
+        <v>235</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>425</v>
+        <v>236</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>237</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
       </c>
@@ -8155,7 +8285,7 @@
         <v>78</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>78</v>
+        <v>239</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>78</v>
@@ -8167,13 +8297,11 @@
         <v>78</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="Y53" s="2"/>
       <c r="Z53" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>78</v>
@@ -8191,7 +8319,7 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>421</v>
+        <v>241</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>76</v>
@@ -8206,31 +8334,31 @@
         <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>427</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>428</v>
+        <v>242</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>429</v>
+        <v>243</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>430</v>
+        <v>78</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>431</v>
+        <v>78</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8240,7 +8368,7 @@
         <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>78</v>
@@ -8249,16 +8377,16 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>434</v>
+        <v>245</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>435</v>
+        <v>246</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>436</v>
+        <v>247</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8272,7 +8400,7 @@
         <v>78</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>78</v>
+        <v>248</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>78</v>
@@ -8284,13 +8412,13 @@
         <v>78</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>437</v>
+        <v>78</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>438</v>
+        <v>78</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>78</v>
@@ -8308,7 +8436,7 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>432</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>76</v>
@@ -8323,16 +8451,16 @@
         <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>439</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>440</v>
+        <v>250</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>441</v>
+        <v>251</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>78</v>
@@ -8340,21 +8468,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>443</v>
+        <v>417</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>444</v>
+        <v>78</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8366,17 +8494,15 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>445</v>
+        <v>253</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>254</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>448</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8425,13 +8551,13 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>443</v>
+        <v>256</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
@@ -8440,16 +8566,16 @@
         <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>449</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>450</v>
+        <v>257</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>451</v>
+        <v>258</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>78</v>
@@ -8457,10 +8583,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>452</v>
+        <v>418</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8471,7 +8597,7 @@
         <v>76</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8483,15 +8609,17 @@
         <v>87</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>183</v>
+        <v>260</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>453</v>
+        <v>261</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>263</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8516,13 +8644,13 @@
         <v>78</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>455</v>
+        <v>78</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>456</v>
+        <v>78</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>78</v>
@@ -8540,13 +8668,13 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>264</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
@@ -8558,13 +8686,13 @@
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>78</v>
+        <v>265</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>457</v>
+        <v>266</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>78</v>
@@ -8572,10 +8700,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>458</v>
+        <v>419</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8586,10 +8714,10 @@
         <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>78</v>
@@ -8598,15 +8726,17 @@
         <v>87</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>459</v>
+        <v>161</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>460</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8655,13 +8785,13 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>458</v>
+        <v>423</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
@@ -8676,10 +8806,10 @@
         <v>78</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>78</v>
@@ -8687,21 +8817,21 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>78</v>
+        <v>425</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>78</v>
@@ -8713,17 +8843,15 @@
         <v>87</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>183</v>
+        <v>426</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>463</v>
+        <v>427</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>465</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>78</v>
@@ -8748,11 +8876,13 @@
         <v>78</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="Y58" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="Z58" t="s" s="2">
-        <v>466</v>
+        <v>78</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>78</v>
@@ -8770,13 +8900,13 @@
         <v>78</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>78</v>
@@ -8785,38 +8915,38 @@
         <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>467</v>
+        <v>429</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>468</v>
+        <v>430</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>470</v>
+        <v>432</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>78</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>78</v>
+        <v>435</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>78</v>
@@ -8828,17 +8958,15 @@
         <v>87</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>472</v>
+        <v>436</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>473</v>
+        <v>437</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>475</v>
-      </c>
+        <v>438</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>78</v>
@@ -8887,13 +9015,13 @@
         <v>78</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>471</v>
+        <v>434</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>78</v>
@@ -8902,27 +9030,27 @@
         <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>477</v>
+        <v>440</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>478</v>
+        <v>441</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>470</v>
+        <v>442</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>78</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8933,7 +9061,7 @@
         <v>76</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>78</v>
@@ -8942,16 +9070,16 @@
         <v>78</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>480</v>
+        <v>445</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>481</v>
+        <v>446</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>482</v>
+        <v>447</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8978,13 +9106,13 @@
         <v>78</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>78</v>
+        <v>448</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>78</v>
+        <v>449</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>78</v>
@@ -9002,13 +9130,13 @@
         <v>78</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>479</v>
+        <v>444</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>78</v>
@@ -9017,38 +9145,38 @@
         <v>98</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>483</v>
+        <v>78</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>484</v>
+        <v>78</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>485</v>
+        <v>450</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>78</v>
+        <v>451</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>487</v>
+        <v>453</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>78</v>
@@ -9057,20 +9185,18 @@
         <v>78</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>455</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>491</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>78</v>
@@ -9119,13 +9245,13 @@
         <v>78</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>78</v>
@@ -9134,38 +9260,38 @@
         <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>492</v>
+        <v>457</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>493</v>
+        <v>458</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>494</v>
+        <v>459</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>78</v>
+        <v>460</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>78</v>
+        <v>461</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>78</v>
+        <v>463</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>78</v>
@@ -9177,16 +9303,16 @@
         <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>496</v>
+        <v>464</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>497</v>
+        <v>465</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>498</v>
+        <v>466</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>499</v>
+        <v>467</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9236,13 +9362,13 @@
         <v>78</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>78</v>
@@ -9251,38 +9377,38 @@
         <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>78</v>
+        <v>468</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>500</v>
+        <v>469</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>501</v>
+        <v>470</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>78</v>
+        <v>471</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>78</v>
+        <v>472</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>78</v>
@@ -9294,20 +9420,18 @@
         <v>87</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>507</v>
-      </c>
+        <v>477</v>
+      </c>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>78</v>
       </c>
@@ -9331,13 +9455,13 @@
         <v>78</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>78</v>
@@ -9355,13 +9479,13 @@
         <v>78</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>78</v>
@@ -9370,31 +9494,31 @@
         <v>98</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>78</v>
+        <v>480</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>510</v>
+        <v>482</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>511</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>78</v>
+        <v>485</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9410,18 +9534,20 @@
         <v>78</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>513</v>
+        <v>486</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>47</v>
+        <v>487</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>488</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>489</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>78</v>
@@ -9470,7 +9596,7 @@
         <v>78</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>512</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>76</v>
@@ -9485,27 +9611,27 @@
         <v>98</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>515</v>
+        <v>490</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>333</v>
+        <v>491</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>517</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9516,7 +9642,7 @@
         <v>76</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>78</v>
@@ -9528,13 +9654,13 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9561,13 +9687,13 @@
         <v>78</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>78</v>
+        <v>330</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>78</v>
+        <v>496</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>78</v>
+        <v>497</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>78</v>
@@ -9585,13 +9711,13 @@
         <v>78</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>518</v>
+        <v>493</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>78</v>
@@ -9603,13 +9729,13 @@
         <v>78</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>333</v>
+        <v>78</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>78</v>
+        <v>483</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>78</v>
@@ -9617,10 +9743,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9640,20 +9766,18 @@
         <v>78</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>524</v>
+        <v>494</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>78</v>
@@ -9702,7 +9826,7 @@
         <v>78</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>522</v>
+        <v>499</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>76</v>
@@ -9717,23 +9841,1070 @@
         <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Y67" s="2"/>
+      <c r="Z67" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AL66" t="s" s="2">
+      <c r="B70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AM66" t="s" s="2">
-        <v>528</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AO66" t="s" s="2">
+      <c r="AM75" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AO75" t="s" s="2">
         <v>78</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO66">
+  <autoFilter ref="A1:AO75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9743,7 +10914,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI65">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T07:47:29+00:00</t>
+    <t>2023-06-07T09:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.4.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-28T12:17:56+00:00</t>
+    <t>2024-07-02T13:23:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.1</t>
+    <t>1.4.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T13:23:40+00:00</t>
+    <t>2025-03-20T10:06:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -968,7 +968,7 @@
     <t>The status of the order.</t>
   </si>
   <si>
-    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](event.html) for general discussion) or using the [Task](task.html) resource.</t>
+    <t>The status is generally fully in the control of the requester - they determine whether the order is draft or active and, after it has been activated, competed, cancelled or suspended. States relating to the activities of the performer are reflected on either the corresponding event (see [Event Pattern](http://hl7.org/fhir/R4/event.html) for general discussion) or using the [Task](http://hl7.org/fhir/R4/task.html) resource.</t>
   </si>
   <si>
     <t>The status of a service order.</t>
@@ -1123,7 +1123,7 @@
     <t>Many laboratory and radiology procedure codes embed the specimen/organ system in the test order name, for example,  serum or serum/plasma glucose, or a chest x-ray. The specimen might not be recorded separately from the test code.</t>
   </si>
   <si>
-    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred] and a valueset using LOINC Order codes is available [here](valueset-diagnostic-requests.html).</t>
+    <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1586,7 +1586,7 @@
     <t>Codes and/or text ientifying the reason for making the request.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.   Use `CodeableConcept.text` element if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>http://nhn.no/fhir/nilar/ValueSet/request-reason-vs</t>
@@ -1617,7 +1617,7 @@
     <t>Indicates another resource that provides a justification for why this service is being requested.   May relate to the resources referred to in `supportingInfo`.</t>
   </si>
   <si>
-    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](servicerequest-example-di.html).</t>
+    <t>This element represents why the referral is being made and may be used to decide how the service will be performed, or even if it will be performed at all.    To be as specific as possible,  a reference to  *Observation* or *Condition* should be used if available.  Otherwise when referencing  *DiagnosticReport*  it should contain a finding  in `DiagnosticReport.conclusion` and/or `DiagnosticReport.conclusionCode`.   When using a reference to *DocumentReference*, the target document should contain clear findings language providing the relevant reason for this service request.  Use  the CodeableConcept text element in `ServiceRequest.reasonCode` if the data is free (uncoded) text as shown in the [CT Scan example](http://hl7.org/fhir/R4/servicerequest-example-di.html).</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -1693,7 +1693,7 @@
     <t>The specimens appended to the request.</t>
   </si>
   <si>
-    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](specimen.html) resource points to the ServiceRequest.</t>
+    <t>Many diagnostic procedures need a specimen, but the request itself is not actually about the specimen. This element is for when the diagnostic is requested on already existing specimens and the request points to the specimen it applies to.    Conversely, if the request is entered first with an unknown specimen, then the [Specimen](http://hl7.org/fhir/R4/specimen.html) resource points to the ServiceRequest.</t>
   </si>
   <si>
     <t>SPM</t>
@@ -2136,7 +2136,7 @@
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="186.83203125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>

--- a/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
+++ b/DiagnosticReportIG/CurrentBuild/StructureDefinition-nilar-service-request.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.2</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-20T10:06:13+00:00</t>
+    <t>2025-09-10T06:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -368,7 +368,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -729,7 +729,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -817,7 +817,7 @@
     <t>ServiceRequest.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -842,7 +842,7 @@
     <t>ServiceRequest.instantiatesCanonical</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(ActivityDefinition|PlanDefinition)
+    <t xml:space="preserve">canonical(ActivityDefinition|4.0.1|PlanDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -886,7 +886,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|MedicationRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|MedicationRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -912,7 +912,7 @@
 priorrenewed order</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>Classification of the requested service.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-category</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-category|4.0.1</t>
   </si>
   <si>
     <t>RF1-5</t>
@@ -1126,7 +1126,7 @@
     <t>Codes for tests or services that can be carried out by a designated individual, organization or healthcare service.  For laboratory, LOINC is  (preferred)[http://build.fhir.org/terminologies.html#preferred].</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-code|4.0.1</t>
   </si>
   <si>
     <t>Request.code</t>
@@ -1163,7 +1163,7 @@
     <t>Codified order entry details which are based on order context.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail</t>
+    <t>http://hl7.org/fhir/ValueSet/servicerequest-orderdetail|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">prr-1
@@ -1261,7 +1261,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1334,7 +1334,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1407,7 +1407,7 @@
     <t>A coded concept identifying the pre-condition that should hold prior to performing a procedure.  For example "pain", "on flare-up", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/medication-as-needed-reason|4.0.1</t>
   </si>
   <si>
     <t>boolean: precondition.negationInd (inversed - so negationInd = true means asNeeded=false CodeableConcept: precondition.observationEventCriterion[code="Assertion"].value</t>
@@ -1502,7 +1502,7 @@
     <t>Indicates specific responsibility of an individual within the care team, such as "Primary physician", "Team coordinator", "Caregiver", etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/participant-role</t>
+    <t>http://hl7.org/fhir/ValueSet/participant-role|4.0.1</t>
   </si>
   <si>
     <t>Request.performerType</t>
@@ -1524,7 +1524,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam|HealthcareService|Patient|Device|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|CareTeam|4.0.1|HealthcareService|4.0.1|Patient|4.0.1|Device|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1567,7 +1567,7 @@
     <t>ServiceRequest.locationReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1607,7 +1607,7 @@
     <t>ServiceRequest.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1632,7 +1632,7 @@
     <t>ServiceRequest.insurance</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Coverage|ClaimResponse)
+    <t xml:space="preserve">Reference(Coverage|4.0.1|ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1658,7 +1658,7 @@
 AOE</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1683,7 +1683,7 @@
     <t>ServiceRequest.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>targetSiteCode</t>
@@ -1767,7 +1767,7 @@
     <t>ServiceRequest.relevantHistory</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Provenance)
+    <t xml:space="preserve">Reference(Provenance|4.0.1)
 </t>
   </si>
   <si>
@@ -2112,17 +2112,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="64.16015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.94140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="44.00390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.0078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="35.09765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="37.7265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="105.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="126.609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2131,27 +2131,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="186.83203125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="67.80078125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.71484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="160.17578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="30.62109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="85.41796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="163.4453125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="66.88671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="73.23046875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="140.125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="57.34375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
